--- a/data/trans_orig/IP38E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP38E_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DBA49F-8395-4D26-9CD2-6DB21B555E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D95BC5-986E-4AA1-8958-12A743BBE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAEED2E6-F8DE-4654-8149-6703ADACF249}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5922C460-F643-41A6-8FC8-C798BDE74839}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>34,95%</t>
+    <t>18,26%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>53,44%</t>
+    <t>52,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>65,05%</t>
+    <t>81,74%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>46,56%</t>
+    <t>47,35%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -122,43 +122,43 @@
     <t>91,77%</t>
   </si>
   <si>
-    <t>71,94%</t>
+    <t>72,53%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>14,67%</t>
+    <t>13,11%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>28,06%</t>
+    <t>27,47%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>85,33%</t>
+    <t>86,89%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -167,43 +167,43 @@
     <t>81,96%</t>
   </si>
   <si>
-    <t>29,11%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>58,3%</t>
+    <t>55,11%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>70,89%</t>
+    <t>70,37%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>41,7%</t>
+    <t>44,89%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -212,103 +212,103 @@
     <t>71,44%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>52,57%</t>
+    <t>48,51%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>47,43%</t>
+    <t>51,49%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>80,57%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CEAA00-E6B3-4AA3-BE53-48A9F4F196B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C31DF8-8430-4121-A605-D8D8B6CC9B42}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP38E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP38E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D95BC5-986E-4AA1-8958-12A743BBE54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D2CB9E-E419-450A-B006-54FFFA15638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5922C460-F643-41A6-8FC8-C798BDE74839}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3E1A63AB-D606-4D6A-A8B8-9E6240FF1571}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
-  <si>
-    <t>Adulto que aporta más ingresos al hogar según si trabaja actualmente en 2023 (Tasa respuesta: 4,74%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+  <si>
+    <t>Adulto que aporta más ingresos al hogar según si trabaja actualmente en 2023 (Tasa respuesta: 31,3%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,244 +71,289 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -723,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C31DF8-8430-4121-A605-D8D8B6CC9B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB09F028-DCBF-48E0-9E17-ECBEE9F54BC4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -841,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>1481</v>
+        <v>15161</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -856,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>1933</v>
+        <v>20950</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -868,73 +913,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>3414</v>
+        <v>36112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>396</v>
+        <v>2198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>396</v>
+        <v>4175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -943,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7">
-        <v>1481</v>
+        <v>17138</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I6" s="7">
-        <v>2329</v>
+        <v>23148</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="N6" s="7">
-        <v>3810</v>
+        <v>40287</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>8407</v>
+        <v>44303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>2350</v>
+        <v>58234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="N7" s="7">
-        <v>10757</v>
+        <v>102536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>754</v>
+        <v>5582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>1455</v>
+        <v>4424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>2209</v>
+        <v>10007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>9161</v>
+        <v>49885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>3805</v>
+        <v>62658</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="N9" s="7">
-        <v>12966</v>
+        <v>112543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>4601</v>
+        <v>47332</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>6731</v>
+        <v>54521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>11332</v>
+        <v>101853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>1013</v>
+        <v>9515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>1034</v>
+        <v>4627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>2047</v>
+        <v>14142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>5614</v>
+        <v>56847</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7">
-        <v>7765</v>
+        <v>59148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N12" s="7">
-        <v>13379</v>
+        <v>115995</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>13260</v>
+        <v>61451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>8617</v>
+        <v>79930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="N13" s="7">
-        <v>21877</v>
+        <v>141381</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>5302</v>
+        <v>10198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>1848</v>
+        <v>13079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7">
-        <v>7151</v>
+        <v>23277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,49 +1453,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>18562</v>
+        <v>71649</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I15" s="7">
-        <v>10465</v>
+        <v>93009</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="N15" s="7">
-        <v>29028</v>
+        <v>164658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,100 +1506,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="D16" s="7">
-        <v>27749</v>
+        <v>168247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="I16" s="7">
-        <v>19632</v>
+        <v>213635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>76</v>
+        <v>532</v>
       </c>
       <c r="N16" s="7">
-        <v>47381</v>
+        <v>381882</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>7069</v>
+        <v>27272</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>4733</v>
+        <v>24328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N17" s="7">
-        <v>11802</v>
+        <v>51600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,54 +1608,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="D18" s="7">
-        <v>34818</v>
+        <v>195519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="I18" s="7">
-        <v>24365</v>
+        <v>237963</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>91</v>
+        <v>601</v>
       </c>
       <c r="N18" s="7">
-        <v>59183</v>
+        <v>433482</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
